--- a/state_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
+++ b/state_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         <v>0.011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0125896132365173</v>
+        <v>0.0125889091403071</v>
       </c>
       <c r="H3" t="n">
         <v>0.07000000000000001</v>
@@ -728,7 +728,7 @@
         <v>0.011</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0125896132365173</v>
+        <v>0.0125889091403071</v>
       </c>
       <c r="H4" t="n">
         <v>0.07000000000000001</v>
@@ -886,7 +886,7 @@
         <v>0.00793</v>
       </c>
       <c r="G6" t="n">
-        <v>0.013938507385312</v>
+        <v>0.014055513417007</v>
       </c>
       <c r="H6" t="n">
         <v>0.0770033369355466</v>
@@ -897,13 +897,13 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.00401</v>
+        <v>0.00412</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02185</v>
+        <v>0.02232</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04113</v>
+        <v>0.04167</v>
       </c>
       <c r="O6" t="n">
         <v>1785330</v>
@@ -967,7 +967,7 @@
         <v>0.00793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.013938507385312</v>
+        <v>0.014055513417007</v>
       </c>
       <c r="H7" t="n">
         <v>0.0770033369355466</v>
@@ -978,13 +978,13 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.00401</v>
+        <v>0.00412</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02185</v>
+        <v>0.02232</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04113</v>
+        <v>0.04167</v>
       </c>
       <c r="O7" t="n">
         <v>1785330</v>
@@ -1826,7 +1826,7 @@
         <v>0.011</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0122245678226341</v>
+        <v>0.0122239353294284</v>
       </c>
       <c r="H18" t="n">
         <v>0.07000000000000001</v>
@@ -1907,7 +1907,7 @@
         <v>0.011</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0122245678226341</v>
+        <v>0.0122239353294284</v>
       </c>
       <c r="H19" t="n">
         <v>0.07000000000000001</v>
@@ -2065,7 +2065,7 @@
         <v>0.00725</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0128304144692098</v>
+        <v>0.0129260926087985</v>
       </c>
       <c r="H21" t="n">
         <v>0.0770033369355466</v>
@@ -2079,10 +2079,10 @@
         <v>0.00514</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0198</v>
+        <v>0.02011</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03725</v>
+        <v>0.03898</v>
       </c>
       <c r="O21" t="n">
         <v>1785330</v>
@@ -2146,7 +2146,7 @@
         <v>0.00725</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0128304144692098</v>
+        <v>0.0129260926087985</v>
       </c>
       <c r="H22" t="n">
         <v>0.0770033369355466</v>
@@ -2160,10 +2160,10 @@
         <v>0.00514</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0198</v>
+        <v>0.02011</v>
       </c>
       <c r="N22" t="n">
-        <v>0.03725</v>
+        <v>0.03898</v>
       </c>
       <c r="O22" t="n">
         <v>1785330</v>
@@ -3005,7 +3005,7 @@
         <v>0.011</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0114687410988467</v>
+        <v>0.0114680747220764</v>
       </c>
       <c r="H33" t="n">
         <v>0.027</v>
@@ -3086,7 +3086,7 @@
         <v>0.011</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0114687410988467</v>
+        <v>0.0114680747220764</v>
       </c>
       <c r="H34" t="n">
         <v>0.027</v>
@@ -3584,13 +3584,13 @@
         <v>0.0069</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0120637794349012</v>
+        <v>0.0121505269851743</v>
       </c>
       <c r="H40" t="n">
         <v>0.0770033369355466</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06135</v>
+        <v>0.06156</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -3601,7 +3601,7 @@
         <v>0.01831</v>
       </c>
       <c r="N40" t="n">
-        <v>0.02954</v>
+        <v>0.03025</v>
       </c>
       <c r="O40" t="n">
         <v>1785330</v>
@@ -3665,13 +3665,13 @@
         <v>0.0069</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0120637794349012</v>
+        <v>0.0121505269851743</v>
       </c>
       <c r="H41" t="n">
         <v>0.0770033369355466</v>
       </c>
       <c r="I41" t="n">
-        <v>0.06135</v>
+        <v>0.06156</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -3682,7 +3682,7 @@
         <v>0.01831</v>
       </c>
       <c r="N41" t="n">
-        <v>0.02954</v>
+        <v>0.03025</v>
       </c>
       <c r="O41" t="n">
         <v>1785330</v>
@@ -4417,6 +4417,1525 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1544</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.17885</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0118035714285714</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01698</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.01902</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0118035714285714</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0.0095</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.01698</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.01902</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>412</v>
+      </c>
+      <c r="G54" t="n">
+        <v>849.196428571429</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7900</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4129.8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>32.1428571428571</v>
+      </c>
+      <c r="K54" t="n">
+        <v>69.6428571428571</v>
+      </c>
+      <c r="L54" t="n">
+        <v>380</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1196</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2515.32</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>412</v>
+      </c>
+      <c r="G55" t="n">
+        <v>849.196428571429</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7900</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4129.8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>32.1428571428571</v>
+      </c>
+      <c r="K55" t="n">
+        <v>69.6428571428571</v>
+      </c>
+      <c r="L55" t="n">
+        <v>380</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1196</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2515.32</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>412</v>
+      </c>
+      <c r="G56" t="n">
+        <v>849.196428571429</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7900</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4129.8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>32.1428571428571</v>
+      </c>
+      <c r="K56" t="n">
+        <v>69.6428571428571</v>
+      </c>
+      <c r="L56" t="n">
+        <v>380</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1196</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2515.32</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>412</v>
+      </c>
+      <c r="G57" t="n">
+        <v>849.196428571429</v>
+      </c>
+      <c r="H57" t="n">
+        <v>7900</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4129.8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>32.1428571428571</v>
+      </c>
+      <c r="K57" t="n">
+        <v>69.6428571428571</v>
+      </c>
+      <c r="L57" t="n">
+        <v>380</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1196</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2515.32</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>79</v>
+      </c>
+      <c r="G58" t="n">
+        <v>80.026</v>
+      </c>
+      <c r="H58" t="n">
+        <v>98.13</v>
+      </c>
+      <c r="I58" t="n">
+        <v>98.13</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>79</v>
+      </c>
+      <c r="M58" t="n">
+        <v>91.78449999999999</v>
+      </c>
+      <c r="N58" t="n">
+        <v>98.13</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.00618</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0071632453055254</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.02620635060341</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.01915</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01265</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.01625</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.00618</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0071632453055254</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.02620635060341</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01915</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01265</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.01625</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.075375</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.5182</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.961</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.075375</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.5182</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.961</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.9004</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4.453</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.095625</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.1064</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.53224</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.97508</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.095625</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.639</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.1064</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.53224</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.97508</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.26232142857143</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.6292</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.0736</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.26232142857143</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.6292</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.0736</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0344464285714286</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.05808</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Kuku at N. Johnstone Farm Bridge</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0344464285714286</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.05808</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1785330</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5495215</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
+++ b/state_results/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -139,6 +139,9 @@
     <t>E coli (95th Percentile)</t>
   </si>
   <si>
+    <t>Visual Clarity (Sediment class 2)</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>2019 - 2023</t>
   </si>
   <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
     <t>RepSite</t>
   </si>
   <si>
@@ -200,6 +206,9 @@
   </si>
   <si>
     <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -557,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,13 +645,13 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>0.175</v>
@@ -657,7 +666,7 @@
         <v>0.284</v>
       </c>
       <c r="L2">
-        <v>0.166</v>
+        <v>0.175</v>
       </c>
       <c r="M2">
         <v>0.25565</v>
@@ -672,16 +681,16 @@
         <v>5495215</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -692,19 +701,19 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>0.011</v>
       </c>
       <c r="G3">
-        <v>0.0125889091403071</v>
+        <v>0.0126107649285251</v>
       </c>
       <c r="H3">
         <v>0.07000000000000001</v>
@@ -728,19 +737,19 @@
         <v>5495215</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -751,19 +760,19 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>0.011</v>
       </c>
       <c r="G4">
-        <v>0.0125889091403071</v>
+        <v>0.0126107649285251</v>
       </c>
       <c r="H4">
         <v>0.07000000000000001</v>
@@ -787,19 +796,19 @@
         <v>5495215</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -810,13 +819,13 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>83.53</v>
@@ -846,16 +855,16 @@
         <v>5495215</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -866,34 +875,34 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6">
-        <v>0.00793</v>
+        <v>0.00773</v>
       </c>
       <c r="G6">
-        <v>0.014055513417007</v>
+        <v>0.0140115373701612</v>
       </c>
       <c r="H6">
         <v>0.0770033369355466</v>
       </c>
       <c r="I6">
-        <v>0.06586</v>
+        <v>0.06642000000000001</v>
       </c>
       <c r="L6">
-        <v>0.00412</v>
+        <v>0.00555</v>
       </c>
       <c r="M6">
-        <v>0.02232</v>
+        <v>0.02261</v>
       </c>
       <c r="N6">
-        <v>0.04167</v>
+        <v>0.04137</v>
       </c>
       <c r="O6">
         <v>1785330</v>
@@ -902,19 +911,19 @@
         <v>5495215</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -925,34 +934,34 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>0.00793</v>
+        <v>0.00773</v>
       </c>
       <c r="G7">
-        <v>0.014055513417007</v>
+        <v>0.0140115373701612</v>
       </c>
       <c r="H7">
         <v>0.0770033369355466</v>
       </c>
       <c r="I7">
-        <v>0.06586</v>
+        <v>0.06642000000000001</v>
       </c>
       <c r="L7">
-        <v>0.00412</v>
+        <v>0.00555</v>
       </c>
       <c r="M7">
-        <v>0.02232</v>
+        <v>0.02261</v>
       </c>
       <c r="N7">
-        <v>0.04167</v>
+        <v>0.04137</v>
       </c>
       <c r="O7">
         <v>1785330</v>
@@ -961,19 +970,19 @@
         <v>5495215</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -984,19 +993,19 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>0.876</v>
+        <v>0.889</v>
       </c>
       <c r="G8">
-        <v>0.9610377358490571</v>
+        <v>0.967188679245283</v>
       </c>
       <c r="H8">
         <v>1.78</v>
@@ -1005,7 +1014,7 @@
         <v>1.6085</v>
       </c>
       <c r="L8">
-        <v>0.889</v>
+        <v>0.876</v>
       </c>
       <c r="M8">
         <v>1.3149</v>
@@ -1020,19 +1029,19 @@
         <v>5495215</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1043,19 +1052,19 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9">
-        <v>0.876</v>
+        <v>0.889</v>
       </c>
       <c r="G9">
-        <v>0.9610377358490571</v>
+        <v>0.967188679245283</v>
       </c>
       <c r="H9">
         <v>1.78</v>
@@ -1064,7 +1073,7 @@
         <v>1.6085</v>
       </c>
       <c r="L9">
-        <v>0.889</v>
+        <v>0.876</v>
       </c>
       <c r="M9">
         <v>1.3149</v>
@@ -1079,19 +1088,19 @@
         <v>5495215</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1102,13 +1111,13 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>4.162</v>
@@ -1123,7 +1132,7 @@
         <v>4.86</v>
       </c>
       <c r="L10">
-        <v>4.311</v>
+        <v>4.162</v>
       </c>
       <c r="M10">
         <v>4.72</v>
@@ -1138,16 +1147,16 @@
         <v>5495215</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1158,16 +1167,16 @@
         <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="G11">
-        <v>0.986452830188679</v>
+        <v>0.992150943396226</v>
       </c>
       <c r="H11">
         <v>1.795</v>
@@ -1176,7 +1185,7 @@
         <v>1.6144</v>
       </c>
       <c r="L11">
-        <v>0.909</v>
+        <v>0.905</v>
       </c>
       <c r="M11">
         <v>1.34196</v>
@@ -1191,19 +1200,19 @@
         <v>5495215</v>
       </c>
       <c r="Q11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1214,16 +1223,16 @@
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F12">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="G12">
-        <v>0.986452830188679</v>
+        <v>0.992150943396226</v>
       </c>
       <c r="H12">
         <v>1.795</v>
@@ -1232,7 +1241,7 @@
         <v>1.6144</v>
       </c>
       <c r="L12">
-        <v>0.909</v>
+        <v>0.905</v>
       </c>
       <c r="M12">
         <v>1.34196</v>
@@ -1247,19 +1256,19 @@
         <v>5495215</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1270,16 +1279,16 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>1.15</v>
       </c>
       <c r="G13">
-        <v>1.18075471698113</v>
+        <v>1.18094339622642</v>
       </c>
       <c r="H13">
         <v>2.04</v>
@@ -1288,7 +1297,7 @@
         <v>1.795</v>
       </c>
       <c r="L13">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M13">
         <v>1.4847</v>
@@ -1303,19 +1312,19 @@
         <v>5495215</v>
       </c>
       <c r="Q13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1326,16 +1335,16 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14">
         <v>1.15</v>
       </c>
       <c r="G14">
-        <v>1.18075471698113</v>
+        <v>1.18094339622642</v>
       </c>
       <c r="H14">
         <v>2.04</v>
@@ -1344,7 +1353,7 @@
         <v>1.795</v>
       </c>
       <c r="L14">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M14">
         <v>1.4847</v>
@@ -1359,19 +1368,19 @@
         <v>5495215</v>
       </c>
       <c r="Q14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1382,16 +1391,16 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>0.03</v>
       </c>
       <c r="G15">
-        <v>0.0398490566037736</v>
+        <v>0.039188679245283</v>
       </c>
       <c r="H15">
         <v>0.351</v>
@@ -1400,13 +1409,13 @@
         <v>0.07645</v>
       </c>
       <c r="L15">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="M15">
-        <v>0.04349</v>
+        <v>0.043</v>
       </c>
       <c r="N15">
-        <v>0.062</v>
+        <v>0.0546</v>
       </c>
       <c r="O15">
         <v>1785330</v>
@@ -1415,19 +1424,19 @@
         <v>5495215</v>
       </c>
       <c r="Q15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1438,16 +1447,16 @@
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F16">
         <v>0.03</v>
       </c>
       <c r="G16">
-        <v>0.0398490566037736</v>
+        <v>0.039188679245283</v>
       </c>
       <c r="H16">
         <v>0.351</v>
@@ -1456,13 +1465,13 @@
         <v>0.07645</v>
       </c>
       <c r="L16">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="M16">
-        <v>0.04349</v>
+        <v>0.043</v>
       </c>
       <c r="N16">
-        <v>0.062</v>
+        <v>0.0546</v>
       </c>
       <c r="O16">
         <v>1785330</v>
@@ -1471,19 +1480,19 @@
         <v>5495215</v>
       </c>
       <c r="Q16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1494,13 +1503,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>0.16</v>
@@ -1530,16 +1539,16 @@
         <v>5495215</v>
       </c>
       <c r="Q17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1550,19 +1559,19 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F18">
         <v>0.011</v>
       </c>
       <c r="G18">
-        <v>0.0122239353294284</v>
+        <v>0.0122435684951158</v>
       </c>
       <c r="H18">
         <v>0.07000000000000001</v>
@@ -1571,7 +1580,7 @@
         <v>0.019</v>
       </c>
       <c r="L18">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M18">
         <v>0.015</v>
@@ -1586,19 +1595,19 @@
         <v>5495215</v>
       </c>
       <c r="Q18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1609,19 +1618,19 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <v>0.011</v>
       </c>
       <c r="G19">
-        <v>0.0122239353294284</v>
+        <v>0.0122435684951158</v>
       </c>
       <c r="H19">
         <v>0.07000000000000001</v>
@@ -1630,7 +1639,7 @@
         <v>0.019</v>
       </c>
       <c r="L19">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M19">
         <v>0.015</v>
@@ -1645,19 +1654,19 @@
         <v>5495215</v>
       </c>
       <c r="Q19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1668,13 +1677,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20">
         <v>80</v>
@@ -1704,16 +1713,16 @@
         <v>5495215</v>
       </c>
       <c r="Q20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1724,34 +1733,34 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21">
-        <v>0.00725</v>
+        <v>0.00722</v>
       </c>
       <c r="G21">
-        <v>0.0129260926087985</v>
+        <v>0.0128660046945654</v>
       </c>
       <c r="H21">
         <v>0.0770033369355466</v>
       </c>
       <c r="I21">
-        <v>0.05992</v>
+        <v>0.06098</v>
       </c>
       <c r="L21">
-        <v>0.00514</v>
+        <v>0.00549</v>
       </c>
       <c r="M21">
-        <v>0.02011</v>
+        <v>0.02004</v>
       </c>
       <c r="N21">
-        <v>0.03898</v>
+        <v>0.03654</v>
       </c>
       <c r="O21">
         <v>1785330</v>
@@ -1760,19 +1769,19 @@
         <v>5495215</v>
       </c>
       <c r="Q21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1783,34 +1792,34 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22">
-        <v>0.00725</v>
+        <v>0.00722</v>
       </c>
       <c r="G22">
-        <v>0.0129260926087985</v>
+        <v>0.0128660046945654</v>
       </c>
       <c r="H22">
         <v>0.0770033369355466</v>
       </c>
       <c r="I22">
-        <v>0.05992</v>
+        <v>0.06098</v>
       </c>
       <c r="L22">
-        <v>0.00514</v>
+        <v>0.00549</v>
       </c>
       <c r="M22">
-        <v>0.02011</v>
+        <v>0.02004</v>
       </c>
       <c r="N22">
-        <v>0.03898</v>
+        <v>0.03654</v>
       </c>
       <c r="O22">
         <v>1785330</v>
@@ -1819,19 +1828,19 @@
         <v>5495215</v>
       </c>
       <c r="Q22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1842,19 +1851,19 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23">
-        <v>0.916</v>
+        <v>0.926</v>
       </c>
       <c r="G23">
-        <v>0.97471186440678</v>
+        <v>0.980237288135593</v>
       </c>
       <c r="H23">
         <v>1.78</v>
@@ -1863,7 +1872,7 @@
         <v>1.6055</v>
       </c>
       <c r="L23">
-        <v>1.0035</v>
+        <v>0.916</v>
       </c>
       <c r="M23">
         <v>1.3147</v>
@@ -1878,19 +1887,19 @@
         <v>5495215</v>
       </c>
       <c r="Q23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1901,19 +1910,19 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>0.916</v>
+        <v>0.926</v>
       </c>
       <c r="G24">
-        <v>0.97471186440678</v>
+        <v>0.980237288135593</v>
       </c>
       <c r="H24">
         <v>1.78</v>
@@ -1922,7 +1931,7 @@
         <v>1.6055</v>
       </c>
       <c r="L24">
-        <v>1.0035</v>
+        <v>0.916</v>
       </c>
       <c r="M24">
         <v>1.3147</v>
@@ -1937,19 +1946,19 @@
         <v>5495215</v>
       </c>
       <c r="Q24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1960,13 +1969,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25">
         <v>4.44</v>
@@ -1996,16 +2005,16 @@
         <v>5495215</v>
       </c>
       <c r="Q25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2016,16 +2025,16 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F26">
-        <v>0.946</v>
+        <v>0.947</v>
       </c>
       <c r="G26">
-        <v>0.9985423728813561</v>
+        <v>1.00366101694915</v>
       </c>
       <c r="H26">
         <v>1.795</v>
@@ -2034,7 +2043,7 @@
         <v>1.6132</v>
       </c>
       <c r="L26">
-        <v>1.018</v>
+        <v>0.946</v>
       </c>
       <c r="M26">
         <v>1.34188</v>
@@ -2049,19 +2058,19 @@
         <v>5495215</v>
       </c>
       <c r="Q26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2072,16 +2081,16 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F27">
-        <v>0.946</v>
+        <v>0.947</v>
       </c>
       <c r="G27">
-        <v>0.9985423728813561</v>
+        <v>1.00366101694915</v>
       </c>
       <c r="H27">
         <v>1.795</v>
@@ -2090,7 +2099,7 @@
         <v>1.6132</v>
       </c>
       <c r="L27">
-        <v>1.018</v>
+        <v>0.946</v>
       </c>
       <c r="M27">
         <v>1.34188</v>
@@ -2105,19 +2114,19 @@
         <v>5495215</v>
       </c>
       <c r="Q27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2128,16 +2137,16 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F28">
         <v>1.22</v>
       </c>
       <c r="G28">
-        <v>1.20033898305085</v>
+        <v>1.20050847457627</v>
       </c>
       <c r="H28">
         <v>2.04</v>
@@ -2146,7 +2155,7 @@
         <v>1.765</v>
       </c>
       <c r="L28">
-        <v>1.235</v>
+        <v>1.22</v>
       </c>
       <c r="M28">
         <v>1.4794</v>
@@ -2161,19 +2170,19 @@
         <v>5495215</v>
       </c>
       <c r="Q28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2184,16 +2193,16 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F29">
         <v>1.22</v>
       </c>
       <c r="G29">
-        <v>1.20033898305085</v>
+        <v>1.20050847457627</v>
       </c>
       <c r="H29">
         <v>2.04</v>
@@ -2202,7 +2211,7 @@
         <v>1.765</v>
       </c>
       <c r="L29">
-        <v>1.235</v>
+        <v>1.22</v>
       </c>
       <c r="M29">
         <v>1.4794</v>
@@ -2217,19 +2226,19 @@
         <v>5495215</v>
       </c>
       <c r="Q29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2240,16 +2249,16 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F30">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="G30">
-        <v>0.0406949152542373</v>
+        <v>0.0401016949152542</v>
       </c>
       <c r="H30">
         <v>0.351</v>
@@ -2258,13 +2267,13 @@
         <v>0.09</v>
       </c>
       <c r="L30">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="M30">
-        <v>0.04841</v>
+        <v>0.04541</v>
       </c>
       <c r="N30">
-        <v>0.062</v>
+        <v>0.06112</v>
       </c>
       <c r="O30">
         <v>1785330</v>
@@ -2273,19 +2282,19 @@
         <v>5495215</v>
       </c>
       <c r="Q30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2296,16 +2305,16 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F31">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="G31">
-        <v>0.0406949152542373</v>
+        <v>0.0401016949152542</v>
       </c>
       <c r="H31">
         <v>0.351</v>
@@ -2314,13 +2323,13 @@
         <v>0.09</v>
       </c>
       <c r="L31">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="M31">
-        <v>0.04841</v>
+        <v>0.04541</v>
       </c>
       <c r="N31">
-        <v>0.062</v>
+        <v>0.06112</v>
       </c>
       <c r="O31">
         <v>1785330</v>
@@ -2329,19 +2338,19 @@
         <v>5495215</v>
       </c>
       <c r="Q31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2352,13 +2361,13 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F32">
         <v>0.157</v>
@@ -2388,16 +2397,16 @@
         <v>5495215</v>
       </c>
       <c r="Q32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2408,19 +2417,19 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>0.011</v>
       </c>
       <c r="G33">
-        <v>0.0114680747220764</v>
+        <v>0.011488759664497</v>
       </c>
       <c r="H33">
         <v>0.027</v>
@@ -2429,7 +2438,7 @@
         <v>0.0197</v>
       </c>
       <c r="L33">
-        <v>0.008999999999999999</v>
+        <v>0.0095</v>
       </c>
       <c r="M33">
         <v>0.015</v>
@@ -2444,19 +2453,19 @@
         <v>5495215</v>
       </c>
       <c r="Q33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2467,19 +2476,19 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F34">
         <v>0.011</v>
       </c>
       <c r="G34">
-        <v>0.0114680747220764</v>
+        <v>0.011488759664497</v>
       </c>
       <c r="H34">
         <v>0.027</v>
@@ -2488,7 +2497,7 @@
         <v>0.0197</v>
       </c>
       <c r="L34">
-        <v>0.008999999999999999</v>
+        <v>0.0095</v>
       </c>
       <c r="M34">
         <v>0.015</v>
@@ -2503,19 +2512,19 @@
         <v>5495215</v>
       </c>
       <c r="Q34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2526,19 +2535,19 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <v>420</v>
       </c>
       <c r="G35">
-        <v>948.804347826087</v>
+        <v>966.8347826086959</v>
       </c>
       <c r="H35">
         <v>7900</v>
@@ -2547,19 +2556,19 @@
         <v>4560</v>
       </c>
       <c r="J35">
-        <v>36.9565217391304</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="K35">
         <v>80.4347826086957</v>
       </c>
       <c r="L35">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="M35">
-        <v>1200</v>
+        <v>1268</v>
       </c>
       <c r="N35">
-        <v>3128.12</v>
+        <v>3127.792</v>
       </c>
       <c r="O35">
         <v>1785330</v>
@@ -2568,19 +2577,19 @@
         <v>5495215</v>
       </c>
       <c r="Q35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2591,19 +2600,19 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36">
         <v>420</v>
       </c>
       <c r="G36">
-        <v>948.804347826087</v>
+        <v>966.8347826086959</v>
       </c>
       <c r="H36">
         <v>7900</v>
@@ -2612,19 +2621,19 @@
         <v>4560</v>
       </c>
       <c r="J36">
-        <v>36.9565217391304</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="K36">
         <v>80.4347826086957</v>
       </c>
       <c r="L36">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="M36">
-        <v>1200</v>
+        <v>1268</v>
       </c>
       <c r="N36">
-        <v>3128.12</v>
+        <v>3127.792</v>
       </c>
       <c r="O36">
         <v>1785330</v>
@@ -2633,19 +2642,19 @@
         <v>5495215</v>
       </c>
       <c r="Q36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2656,19 +2665,19 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F37">
         <v>420</v>
       </c>
       <c r="G37">
-        <v>948.804347826087</v>
+        <v>966.8347826086959</v>
       </c>
       <c r="H37">
         <v>7900</v>
@@ -2677,19 +2686,19 @@
         <v>4560</v>
       </c>
       <c r="J37">
-        <v>36.9565217391304</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="K37">
         <v>80.4347826086957</v>
       </c>
       <c r="L37">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="M37">
-        <v>1200</v>
+        <v>1268</v>
       </c>
       <c r="N37">
-        <v>3128.12</v>
+        <v>3127.792</v>
       </c>
       <c r="O37">
         <v>1785330</v>
@@ -2698,19 +2707,19 @@
         <v>5495215</v>
       </c>
       <c r="Q37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2721,19 +2730,19 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <v>420</v>
       </c>
       <c r="G38">
-        <v>948.804347826087</v>
+        <v>966.8347826086959</v>
       </c>
       <c r="H38">
         <v>7900</v>
@@ -2742,19 +2751,19 @@
         <v>4560</v>
       </c>
       <c r="J38">
-        <v>36.9565217391304</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="K38">
         <v>80.4347826086957</v>
       </c>
       <c r="L38">
-        <v>410</v>
+        <v>525</v>
       </c>
       <c r="M38">
-        <v>1200</v>
+        <v>1268</v>
       </c>
       <c r="N38">
-        <v>3128.12</v>
+        <v>3127.792</v>
       </c>
       <c r="O38">
         <v>1785330</v>
@@ -2763,19 +2772,19 @@
         <v>5495215</v>
       </c>
       <c r="Q38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2786,13 +2795,13 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39">
         <v>79</v>
@@ -2822,16 +2831,16 @@
         <v>5495215</v>
       </c>
       <c r="Q39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2842,34 +2851,34 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40">
-        <v>0.0069</v>
+        <v>0.00649</v>
       </c>
       <c r="G40">
-        <v>0.0121505269851743</v>
+        <v>0.0118890877556446</v>
       </c>
       <c r="H40">
         <v>0.0770033369355466</v>
       </c>
       <c r="I40">
-        <v>0.06156</v>
+        <v>0.06118</v>
       </c>
       <c r="L40">
-        <v>0.00514</v>
+        <v>0.00463</v>
       </c>
       <c r="M40">
         <v>0.01831</v>
       </c>
       <c r="N40">
-        <v>0.03025</v>
+        <v>0.02896</v>
       </c>
       <c r="O40">
         <v>1785330</v>
@@ -2878,19 +2887,19 @@
         <v>5495215</v>
       </c>
       <c r="Q40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2901,34 +2910,34 @@
         <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41">
-        <v>0.0069</v>
+        <v>0.00649</v>
       </c>
       <c r="G41">
-        <v>0.0121505269851743</v>
+        <v>0.0118890877556446</v>
       </c>
       <c r="H41">
         <v>0.0770033369355466</v>
       </c>
       <c r="I41">
-        <v>0.06156</v>
+        <v>0.06118</v>
       </c>
       <c r="L41">
-        <v>0.00514</v>
+        <v>0.00463</v>
       </c>
       <c r="M41">
         <v>0.01831</v>
       </c>
       <c r="N41">
-        <v>0.03025</v>
+        <v>0.02896</v>
       </c>
       <c r="O41">
         <v>1785330</v>
@@ -2937,19 +2946,19 @@
         <v>5495215</v>
       </c>
       <c r="Q41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2960,19 +2969,19 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42">
-        <v>0.921</v>
+        <v>0.9315</v>
       </c>
       <c r="G42">
-        <v>1.02866071428571</v>
+        <v>1.03448214285714</v>
       </c>
       <c r="H42">
         <v>2.45</v>
@@ -2996,19 +3005,19 @@
         <v>5495215</v>
       </c>
       <c r="Q42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3019,19 +3028,19 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F43">
-        <v>0.921</v>
+        <v>0.9315</v>
       </c>
       <c r="G43">
-        <v>1.02866071428571</v>
+        <v>1.03448214285714</v>
       </c>
       <c r="H43">
         <v>2.45</v>
@@ -3055,19 +3064,19 @@
         <v>5495215</v>
       </c>
       <c r="Q43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3078,13 +3087,13 @@
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F44">
         <v>4.162</v>
@@ -3114,16 +3123,16 @@
         <v>5495215</v>
       </c>
       <c r="Q44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3134,16 +3143,16 @@
         <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45">
-        <v>0.9465</v>
+        <v>0.9505</v>
       </c>
       <c r="G45">
-        <v>1.04978571428571</v>
+        <v>1.05517857142857</v>
       </c>
       <c r="H45">
         <v>2.463</v>
@@ -3167,19 +3176,19 @@
         <v>5495215</v>
       </c>
       <c r="Q45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S45" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3190,16 +3199,16 @@
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46">
-        <v>0.9465</v>
+        <v>0.9505</v>
       </c>
       <c r="G46">
-        <v>1.04978571428571</v>
+        <v>1.05517857142857</v>
       </c>
       <c r="H46">
         <v>2.463</v>
@@ -3223,19 +3232,19 @@
         <v>5495215</v>
       </c>
       <c r="Q46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T46" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3246,16 +3255,16 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="G47">
-        <v>1.2025</v>
+        <v>1.20267857142857</v>
       </c>
       <c r="H47">
         <v>2.49</v>
@@ -3279,19 +3288,19 @@
         <v>5495215</v>
       </c>
       <c r="Q47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3302,16 +3311,16 @@
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F48">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="G48">
-        <v>1.2025</v>
+        <v>1.20267857142857</v>
       </c>
       <c r="H48">
         <v>2.49</v>
@@ -3335,19 +3344,19 @@
         <v>5495215</v>
       </c>
       <c r="Q48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3358,31 +3367,31 @@
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49">
         <v>0.03</v>
       </c>
       <c r="G49">
-        <v>0.0338035714285714</v>
+        <v>0.0331785714285714</v>
       </c>
       <c r="H49">
         <v>0.104</v>
       </c>
       <c r="I49">
-        <v>0.062</v>
+        <v>0.0608</v>
       </c>
       <c r="L49">
-        <v>0.0235</v>
+        <v>0.026</v>
       </c>
       <c r="M49">
-        <v>0.04596</v>
+        <v>0.04398</v>
       </c>
       <c r="N49">
-        <v>0.05808</v>
+        <v>0.05604</v>
       </c>
       <c r="O49">
         <v>1785330</v>
@@ -3391,19 +3400,19 @@
         <v>5495215</v>
       </c>
       <c r="Q49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3414,31 +3423,31 @@
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F50">
         <v>0.03</v>
       </c>
       <c r="G50">
-        <v>0.0338035714285714</v>
+        <v>0.0331785714285714</v>
       </c>
       <c r="H50">
         <v>0.104</v>
       </c>
       <c r="I50">
-        <v>0.062</v>
+        <v>0.0608</v>
       </c>
       <c r="L50">
-        <v>0.0235</v>
+        <v>0.026</v>
       </c>
       <c r="M50">
-        <v>0.04596</v>
+        <v>0.04398</v>
       </c>
       <c r="N50">
-        <v>0.05808</v>
+        <v>0.05604</v>
       </c>
       <c r="O50">
         <v>1785330</v>
@@ -3447,19 +3456,19 @@
         <v>5495215</v>
       </c>
       <c r="Q50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3470,13 +3479,13 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F51">
         <v>0.157</v>
@@ -3506,16 +3515,16 @@
         <v>5495215</v>
       </c>
       <c r="Q51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3526,19 +3535,19 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F52">
         <v>0.011</v>
       </c>
       <c r="G52">
-        <v>0.0118035714285714</v>
+        <v>0.0118214285714286</v>
       </c>
       <c r="H52">
         <v>0.027</v>
@@ -3547,7 +3556,7 @@
         <v>0.02</v>
       </c>
       <c r="L52">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M52">
         <v>0.01698</v>
@@ -3562,19 +3571,19 @@
         <v>5495215</v>
       </c>
       <c r="Q52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3585,19 +3594,19 @@
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <v>0.011</v>
       </c>
       <c r="G53">
-        <v>0.0118035714285714</v>
+        <v>0.0118214285714286</v>
       </c>
       <c r="H53">
         <v>0.027</v>
@@ -3606,7 +3615,7 @@
         <v>0.02</v>
       </c>
       <c r="L53">
-        <v>0.0095</v>
+        <v>0.01</v>
       </c>
       <c r="M53">
         <v>0.01698</v>
@@ -3621,19 +3630,19 @@
         <v>5495215</v>
       </c>
       <c r="Q53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3644,40 +3653,40 @@
         <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F54">
         <v>412</v>
       </c>
       <c r="G54">
-        <v>849.196428571429</v>
+        <v>864.035714285714</v>
       </c>
       <c r="H54">
         <v>7900</v>
       </c>
       <c r="I54">
-        <v>4129.8</v>
+        <v>4129.68</v>
       </c>
       <c r="J54">
-        <v>32.1428571428571</v>
+        <v>33.9285714285714</v>
       </c>
       <c r="K54">
         <v>69.6428571428571</v>
       </c>
       <c r="L54">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M54">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="N54">
-        <v>2515.32</v>
+        <v>2515.312</v>
       </c>
       <c r="O54">
         <v>1785330</v>
@@ -3686,19 +3695,19 @@
         <v>5495215</v>
       </c>
       <c r="Q54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3709,40 +3718,40 @@
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F55">
         <v>412</v>
       </c>
       <c r="G55">
-        <v>849.196428571429</v>
+        <v>864.035714285714</v>
       </c>
       <c r="H55">
         <v>7900</v>
       </c>
       <c r="I55">
-        <v>4129.8</v>
+        <v>4129.68</v>
       </c>
       <c r="J55">
-        <v>32.1428571428571</v>
+        <v>33.9285714285714</v>
       </c>
       <c r="K55">
         <v>69.6428571428571</v>
       </c>
       <c r="L55">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M55">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="N55">
-        <v>2515.32</v>
+        <v>2515.312</v>
       </c>
       <c r="O55">
         <v>1785330</v>
@@ -3751,19 +3760,19 @@
         <v>5495215</v>
       </c>
       <c r="Q55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T55" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3774,40 +3783,40 @@
         <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F56">
         <v>412</v>
       </c>
       <c r="G56">
-        <v>849.196428571429</v>
+        <v>864.035714285714</v>
       </c>
       <c r="H56">
         <v>7900</v>
       </c>
       <c r="I56">
-        <v>4129.8</v>
+        <v>4129.68</v>
       </c>
       <c r="J56">
-        <v>32.1428571428571</v>
+        <v>33.9285714285714</v>
       </c>
       <c r="K56">
         <v>69.6428571428571</v>
       </c>
       <c r="L56">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M56">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="N56">
-        <v>2515.32</v>
+        <v>2515.312</v>
       </c>
       <c r="O56">
         <v>1785330</v>
@@ -3816,19 +3825,19 @@
         <v>5495215</v>
       </c>
       <c r="Q56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3839,40 +3848,40 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F57">
         <v>412</v>
       </c>
       <c r="G57">
-        <v>849.196428571429</v>
+        <v>864.035714285714</v>
       </c>
       <c r="H57">
         <v>7900</v>
       </c>
       <c r="I57">
-        <v>4129.8</v>
+        <v>4129.68</v>
       </c>
       <c r="J57">
-        <v>32.1428571428571</v>
+        <v>33.9285714285714</v>
       </c>
       <c r="K57">
         <v>69.6428571428571</v>
       </c>
       <c r="L57">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M57">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="N57">
-        <v>2515.32</v>
+        <v>2515.312</v>
       </c>
       <c r="O57">
         <v>1785330</v>
@@ -3881,19 +3890,19 @@
         <v>5495215</v>
       </c>
       <c r="Q57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3904,13 +3913,13 @@
         <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F58">
         <v>79</v>
@@ -3940,16 +3949,16 @@
         <v>5495215</v>
       </c>
       <c r="Q58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S58" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3960,19 +3969,19 @@
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F59">
-        <v>0.00618</v>
+        <v>0.00604</v>
       </c>
       <c r="G59">
-        <v>0.0071632453055254</v>
+        <v>0.0070099160690386</v>
       </c>
       <c r="H59">
         <v>0.02620635060341</v>
@@ -3981,10 +3990,10 @@
         <v>0.01915</v>
       </c>
       <c r="L59">
-        <v>0.00463</v>
+        <v>0.00412</v>
       </c>
       <c r="M59">
-        <v>0.01265</v>
+        <v>0.01141</v>
       </c>
       <c r="N59">
         <v>0.01625</v>
@@ -3996,19 +4005,19 @@
         <v>5495215</v>
       </c>
       <c r="Q59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4019,19 +4028,19 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F60">
-        <v>0.00618</v>
+        <v>0.00604</v>
       </c>
       <c r="G60">
-        <v>0.0071632453055254</v>
+        <v>0.0070099160690386</v>
       </c>
       <c r="H60">
         <v>0.02620635060341</v>
@@ -4040,10 +4049,10 @@
         <v>0.01915</v>
       </c>
       <c r="L60">
-        <v>0.00463</v>
+        <v>0.00412</v>
       </c>
       <c r="M60">
-        <v>0.01265</v>
+        <v>0.01141</v>
       </c>
       <c r="N60">
         <v>0.01625</v>
@@ -4055,19 +4064,19 @@
         <v>5495215</v>
       </c>
       <c r="Q60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S60" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T60" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4078,19 +4087,19 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F61">
-        <v>0.921</v>
+        <v>0.9315</v>
       </c>
       <c r="G61">
-        <v>1.075375</v>
+        <v>1.08119642857143</v>
       </c>
       <c r="H61">
         <v>2.63</v>
@@ -4099,7 +4108,7 @@
         <v>2.087</v>
       </c>
       <c r="L61">
-        <v>1.175</v>
+        <v>1.155</v>
       </c>
       <c r="M61">
         <v>1.5182</v>
@@ -4114,19 +4123,19 @@
         <v>5495215</v>
       </c>
       <c r="Q61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4137,19 +4146,19 @@
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F62">
-        <v>0.921</v>
+        <v>0.9315</v>
       </c>
       <c r="G62">
-        <v>1.075375</v>
+        <v>1.08119642857143</v>
       </c>
       <c r="H62">
         <v>2.63</v>
@@ -4158,7 +4167,7 @@
         <v>2.087</v>
       </c>
       <c r="L62">
-        <v>1.175</v>
+        <v>1.155</v>
       </c>
       <c r="M62">
         <v>1.5182</v>
@@ -4173,19 +4182,19 @@
         <v>5495215</v>
       </c>
       <c r="Q62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T62" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4196,13 +4205,13 @@
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F63">
         <v>4.162</v>
@@ -4232,16 +4241,16 @@
         <v>5495215</v>
       </c>
       <c r="Q63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T63" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4252,16 +4261,16 @@
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F64">
-        <v>0.9425</v>
+        <v>0.9465</v>
       </c>
       <c r="G64">
-        <v>1.095625</v>
+        <v>1.10101785714286</v>
       </c>
       <c r="H64">
         <v>2.639</v>
@@ -4270,7 +4279,7 @@
         <v>2.1064</v>
       </c>
       <c r="L64">
-        <v>1.191</v>
+        <v>1.17</v>
       </c>
       <c r="M64">
         <v>1.53224</v>
@@ -4285,19 +4294,19 @@
         <v>5495215</v>
       </c>
       <c r="Q64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S64" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4308,16 +4317,16 @@
         <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F65">
-        <v>0.9425</v>
+        <v>0.9465</v>
       </c>
       <c r="G65">
-        <v>1.095625</v>
+        <v>1.10101785714286</v>
       </c>
       <c r="H65">
         <v>2.639</v>
@@ -4326,7 +4335,7 @@
         <v>2.1064</v>
       </c>
       <c r="L65">
-        <v>1.191</v>
+        <v>1.17</v>
       </c>
       <c r="M65">
         <v>1.53224</v>
@@ -4341,19 +4350,19 @@
         <v>5495215</v>
       </c>
       <c r="Q65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S65" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T65" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4364,16 +4373,16 @@
         <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F66">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="G66">
-        <v>1.26232142857143</v>
+        <v>1.2625</v>
       </c>
       <c r="H66">
         <v>2.83</v>
@@ -4382,7 +4391,7 @@
         <v>2.32</v>
       </c>
       <c r="L66">
-        <v>1.325</v>
+        <v>1.29</v>
       </c>
       <c r="M66">
         <v>1.6292</v>
@@ -4397,19 +4406,19 @@
         <v>5495215</v>
       </c>
       <c r="Q66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S66" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T66" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4420,16 +4429,16 @@
         <v>34</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F67">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="G67">
-        <v>1.26232142857143</v>
+        <v>1.2625</v>
       </c>
       <c r="H67">
         <v>2.83</v>
@@ -4438,7 +4447,7 @@
         <v>2.32</v>
       </c>
       <c r="L67">
-        <v>1.325</v>
+        <v>1.29</v>
       </c>
       <c r="M67">
         <v>1.6292</v>
@@ -4453,19 +4462,19 @@
         <v>5495215</v>
       </c>
       <c r="Q67" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T67" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4476,31 +4485,31 @@
         <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F68">
         <v>0.03</v>
       </c>
       <c r="G68">
-        <v>0.0344464285714286</v>
+        <v>0.0338214285714286</v>
       </c>
       <c r="H68">
         <v>0.104</v>
       </c>
       <c r="I68">
-        <v>0.062</v>
+        <v>0.0608</v>
       </c>
       <c r="L68">
-        <v>0.025</v>
+        <v>0.0265</v>
       </c>
       <c r="M68">
         <v>0.046</v>
       </c>
       <c r="N68">
-        <v>0.05808</v>
+        <v>0.05604</v>
       </c>
       <c r="O68">
         <v>1785330</v>
@@ -4509,19 +4518,19 @@
         <v>5495215</v>
       </c>
       <c r="Q68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T68" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U68" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4532,31 +4541,31 @@
         <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F69">
         <v>0.03</v>
       </c>
       <c r="G69">
-        <v>0.0344464285714286</v>
+        <v>0.0338214285714286</v>
       </c>
       <c r="H69">
         <v>0.104</v>
       </c>
       <c r="I69">
-        <v>0.062</v>
+        <v>0.0608</v>
       </c>
       <c r="L69">
-        <v>0.025</v>
+        <v>0.0265</v>
       </c>
       <c r="M69">
         <v>0.046</v>
       </c>
       <c r="N69">
-        <v>0.05808</v>
+        <v>0.05604</v>
       </c>
       <c r="O69">
         <v>1785330</v>
@@ -4565,19 +4574,1196 @@
         <v>5495215</v>
       </c>
       <c r="Q69" t="s">
+        <v>53</v>
+      </c>
+      <c r="R69" t="s">
+        <v>54</v>
+      </c>
+      <c r="S69" t="s">
+        <v>55</v>
+      </c>
+      <c r="T69" t="s">
+        <v>56</v>
+      </c>
+      <c r="U69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
         <v>51</v>
       </c>
-      <c r="R69" t="s">
-        <v>52</v>
-      </c>
-      <c r="S69" t="s">
-        <v>53</v>
-      </c>
-      <c r="T69" t="s">
-        <v>54</v>
-      </c>
-      <c r="U69" t="s">
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70">
+        <v>0.16</v>
+      </c>
+      <c r="G70">
+        <v>0.1622</v>
+      </c>
+      <c r="H70">
+        <v>0.196</v>
+      </c>
+      <c r="I70">
+        <v>0.196</v>
+      </c>
+      <c r="L70">
+        <v>0.16</v>
+      </c>
+      <c r="M70">
+        <v>0.19355</v>
+      </c>
+      <c r="N70">
+        <v>0.196</v>
+      </c>
+      <c r="O70">
+        <v>1785330</v>
+      </c>
+      <c r="P70">
+        <v>5495215</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>53</v>
+      </c>
+      <c r="R70" t="s">
+        <v>54</v>
+      </c>
+      <c r="S70" t="s">
+        <v>55</v>
+      </c>
+      <c r="T70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71">
+        <v>1.55</v>
+      </c>
+      <c r="G71">
+        <v>1.55129032258065</v>
+      </c>
+      <c r="H71">
+        <v>6.4</v>
+      </c>
+      <c r="I71">
+        <v>2.798</v>
+      </c>
+      <c r="L71">
+        <v>1.3</v>
+      </c>
+      <c r="M71">
+        <v>1.923</v>
+      </c>
+      <c r="N71">
+        <v>2.7608</v>
+      </c>
+      <c r="O71">
+        <v>1785330</v>
+      </c>
+      <c r="P71">
+        <v>5495215</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>53</v>
+      </c>
+      <c r="R71" t="s">
+        <v>54</v>
+      </c>
+      <c r="S71" t="s">
+        <v>55</v>
+      </c>
+      <c r="T71" t="s">
+        <v>56</v>
+      </c>
+      <c r="U71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72">
+        <v>0.011</v>
+      </c>
+      <c r="G72">
+        <v>0.0118035714285714</v>
+      </c>
+      <c r="H72">
+        <v>0.027</v>
+      </c>
+      <c r="I72">
+        <v>0.02</v>
+      </c>
+      <c r="L72">
+        <v>0.0095</v>
+      </c>
+      <c r="M72">
+        <v>0.01598</v>
+      </c>
+      <c r="N72">
+        <v>0.01902</v>
+      </c>
+      <c r="O72">
+        <v>1785330</v>
+      </c>
+      <c r="P72">
+        <v>5495215</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>53</v>
+      </c>
+      <c r="R72" t="s">
+        <v>54</v>
+      </c>
+      <c r="S72" t="s">
+        <v>55</v>
+      </c>
+      <c r="T72" t="s">
+        <v>56</v>
+      </c>
+      <c r="U72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73">
+        <v>0.011</v>
+      </c>
+      <c r="G73">
+        <v>0.0118035714285714</v>
+      </c>
+      <c r="H73">
+        <v>0.027</v>
+      </c>
+      <c r="I73">
+        <v>0.02</v>
+      </c>
+      <c r="L73">
+        <v>0.0095</v>
+      </c>
+      <c r="M73">
+        <v>0.01598</v>
+      </c>
+      <c r="N73">
+        <v>0.01902</v>
+      </c>
+      <c r="O73">
+        <v>1785330</v>
+      </c>
+      <c r="P73">
+        <v>5495215</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>53</v>
+      </c>
+      <c r="R73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S73" t="s">
+        <v>55</v>
+      </c>
+      <c r="T73" t="s">
+        <v>56</v>
+      </c>
+      <c r="U73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74">
+        <v>360</v>
+      </c>
+      <c r="G74">
+        <v>769.671428571429</v>
+      </c>
+      <c r="H74">
+        <v>4800</v>
+      </c>
+      <c r="I74">
+        <v>3557.92</v>
+      </c>
+      <c r="J74">
+        <v>28.5714285714286</v>
+      </c>
+      <c r="K74">
+        <v>66.0714285714286</v>
+      </c>
+      <c r="L74">
+        <v>398</v>
+      </c>
+      <c r="M74">
+        <v>1100.864</v>
+      </c>
+      <c r="N74">
+        <v>2757.176</v>
+      </c>
+      <c r="O74">
+        <v>1785330</v>
+      </c>
+      <c r="P74">
+        <v>5495215</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>53</v>
+      </c>
+      <c r="R74" t="s">
+        <v>54</v>
+      </c>
+      <c r="S74" t="s">
+        <v>55</v>
+      </c>
+      <c r="T74" t="s">
+        <v>56</v>
+      </c>
+      <c r="U74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75">
+        <v>360</v>
+      </c>
+      <c r="G75">
+        <v>769.671428571429</v>
+      </c>
+      <c r="H75">
+        <v>4800</v>
+      </c>
+      <c r="I75">
+        <v>3557.92</v>
+      </c>
+      <c r="J75">
+        <v>28.5714285714286</v>
+      </c>
+      <c r="K75">
+        <v>66.0714285714286</v>
+      </c>
+      <c r="L75">
+        <v>398</v>
+      </c>
+      <c r="M75">
+        <v>1100.864</v>
+      </c>
+      <c r="N75">
+        <v>2757.176</v>
+      </c>
+      <c r="O75">
+        <v>1785330</v>
+      </c>
+      <c r="P75">
+        <v>5495215</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>53</v>
+      </c>
+      <c r="R75" t="s">
+        <v>54</v>
+      </c>
+      <c r="S75" t="s">
+        <v>55</v>
+      </c>
+      <c r="T75" t="s">
+        <v>56</v>
+      </c>
+      <c r="U75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76">
+        <v>360</v>
+      </c>
+      <c r="G76">
+        <v>769.671428571429</v>
+      </c>
+      <c r="H76">
+        <v>4800</v>
+      </c>
+      <c r="I76">
+        <v>3557.92</v>
+      </c>
+      <c r="J76">
+        <v>28.5714285714286</v>
+      </c>
+      <c r="K76">
+        <v>66.0714285714286</v>
+      </c>
+      <c r="L76">
+        <v>398</v>
+      </c>
+      <c r="M76">
+        <v>1100.864</v>
+      </c>
+      <c r="N76">
+        <v>2757.176</v>
+      </c>
+      <c r="O76">
+        <v>1785330</v>
+      </c>
+      <c r="P76">
+        <v>5495215</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>53</v>
+      </c>
+      <c r="R76" t="s">
+        <v>54</v>
+      </c>
+      <c r="S76" t="s">
+        <v>55</v>
+      </c>
+      <c r="T76" t="s">
+        <v>56</v>
+      </c>
+      <c r="U76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77">
+        <v>360</v>
+      </c>
+      <c r="G77">
+        <v>769.671428571429</v>
+      </c>
+      <c r="H77">
+        <v>4800</v>
+      </c>
+      <c r="I77">
+        <v>3557.92</v>
+      </c>
+      <c r="J77">
+        <v>28.5714285714286</v>
+      </c>
+      <c r="K77">
+        <v>66.0714285714286</v>
+      </c>
+      <c r="L77">
+        <v>398</v>
+      </c>
+      <c r="M77">
+        <v>1100.864</v>
+      </c>
+      <c r="N77">
+        <v>2757.176</v>
+      </c>
+      <c r="O77">
+        <v>1785330</v>
+      </c>
+      <c r="P77">
+        <v>5495215</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>53</v>
+      </c>
+      <c r="R77" t="s">
+        <v>54</v>
+      </c>
+      <c r="S77" t="s">
+        <v>55</v>
+      </c>
+      <c r="T77" t="s">
+        <v>56</v>
+      </c>
+      <c r="U77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78">
+        <v>80</v>
+      </c>
+      <c r="G78">
+        <v>81.91800000000001</v>
+      </c>
+      <c r="H78">
+        <v>98.13</v>
+      </c>
+      <c r="I78">
+        <v>98.13</v>
+      </c>
+      <c r="L78">
+        <v>80</v>
+      </c>
+      <c r="M78">
+        <v>94.74550000000001</v>
+      </c>
+      <c r="N78">
+        <v>98.13</v>
+      </c>
+      <c r="O78">
+        <v>1785330</v>
+      </c>
+      <c r="P78">
+        <v>5495215</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>53</v>
+      </c>
+      <c r="R78" t="s">
+        <v>54</v>
+      </c>
+      <c r="S78" t="s">
+        <v>55</v>
+      </c>
+      <c r="T78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79">
+        <v>0.0054</v>
+      </c>
+      <c r="G79">
+        <v>0.0078861206868928</v>
+      </c>
+      <c r="H79">
+        <v>0.0440465704764623</v>
+      </c>
+      <c r="I79">
+        <v>0.02487</v>
+      </c>
+      <c r="L79">
+        <v>0.00412</v>
+      </c>
+      <c r="M79">
+        <v>0.01265</v>
+      </c>
+      <c r="N79">
+        <v>0.01797</v>
+      </c>
+      <c r="O79">
+        <v>1785330</v>
+      </c>
+      <c r="P79">
+        <v>5495215</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>53</v>
+      </c>
+      <c r="R79" t="s">
+        <v>54</v>
+      </c>
+      <c r="S79" t="s">
+        <v>55</v>
+      </c>
+      <c r="T79" t="s">
+        <v>56</v>
+      </c>
+      <c r="U79" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80">
+        <v>0.0054</v>
+      </c>
+      <c r="G80">
+        <v>0.0078861206868928</v>
+      </c>
+      <c r="H80">
+        <v>0.0440465704764623</v>
+      </c>
+      <c r="I80">
+        <v>0.02487</v>
+      </c>
+      <c r="L80">
+        <v>0.00412</v>
+      </c>
+      <c r="M80">
+        <v>0.01265</v>
+      </c>
+      <c r="N80">
+        <v>0.01797</v>
+      </c>
+      <c r="O80">
+        <v>1785330</v>
+      </c>
+      <c r="P80">
+        <v>5495215</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>53</v>
+      </c>
+      <c r="R80" t="s">
+        <v>54</v>
+      </c>
+      <c r="S80" t="s">
+        <v>55</v>
+      </c>
+      <c r="T80" t="s">
+        <v>56</v>
+      </c>
+      <c r="U80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81">
+        <v>0.8305</v>
+      </c>
+      <c r="G81">
+        <v>0.966767857142857</v>
+      </c>
+      <c r="H81">
+        <v>2.63</v>
+      </c>
+      <c r="I81">
+        <v>2.087</v>
+      </c>
+      <c r="L81">
+        <v>1.0435</v>
+      </c>
+      <c r="M81">
+        <v>1.4284</v>
+      </c>
+      <c r="N81">
+        <v>1.961</v>
+      </c>
+      <c r="O81">
+        <v>1785330</v>
+      </c>
+      <c r="P81">
+        <v>5495215</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>53</v>
+      </c>
+      <c r="R81" t="s">
+        <v>54</v>
+      </c>
+      <c r="S81" t="s">
+        <v>55</v>
+      </c>
+      <c r="T81" t="s">
+        <v>56</v>
+      </c>
+      <c r="U81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E82" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82">
+        <v>0.8305</v>
+      </c>
+      <c r="G82">
+        <v>0.966767857142857</v>
+      </c>
+      <c r="H82">
+        <v>2.63</v>
+      </c>
+      <c r="I82">
+        <v>2.087</v>
+      </c>
+      <c r="L82">
+        <v>1.0435</v>
+      </c>
+      <c r="M82">
+        <v>1.4284</v>
+      </c>
+      <c r="N82">
+        <v>1.961</v>
+      </c>
+      <c r="O82">
+        <v>1785330</v>
+      </c>
+      <c r="P82">
+        <v>5495215</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>53</v>
+      </c>
+      <c r="R82" t="s">
+        <v>54</v>
+      </c>
+      <c r="S82" t="s">
+        <v>55</v>
+      </c>
+      <c r="T82" t="s">
+        <v>56</v>
+      </c>
+      <c r="U82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
+        <v>51</v>
+      </c>
+      <c r="E83" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83">
+        <v>3.89</v>
+      </c>
+      <c r="G83">
+        <v>3.6332</v>
+      </c>
+      <c r="H83">
+        <v>4.44</v>
+      </c>
+      <c r="I83">
+        <v>4.44</v>
+      </c>
+      <c r="L83">
+        <v>3.89</v>
+      </c>
+      <c r="M83">
+        <v>4.3427</v>
+      </c>
+      <c r="N83">
+        <v>4.44</v>
+      </c>
+      <c r="O83">
+        <v>1785330</v>
+      </c>
+      <c r="P83">
+        <v>5495215</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>53</v>
+      </c>
+      <c r="R83" t="s">
+        <v>54</v>
+      </c>
+      <c r="S83" t="s">
+        <v>55</v>
+      </c>
+      <c r="T83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84">
+        <v>0.874</v>
+      </c>
+      <c r="G84">
+        <v>0.988473214285714</v>
+      </c>
+      <c r="H84">
+        <v>2.639</v>
+      </c>
+      <c r="I84">
+        <v>2.1064</v>
+      </c>
+      <c r="L84">
+        <v>1.055</v>
+      </c>
+      <c r="M84">
+        <v>1.44458</v>
+      </c>
+      <c r="N84">
+        <v>1.97508</v>
+      </c>
+      <c r="O84">
+        <v>1785330</v>
+      </c>
+      <c r="P84">
+        <v>5495215</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>53</v>
+      </c>
+      <c r="R84" t="s">
+        <v>54</v>
+      </c>
+      <c r="S84" t="s">
+        <v>55</v>
+      </c>
+      <c r="T84" t="s">
+        <v>56</v>
+      </c>
+      <c r="U84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85">
+        <v>0.874</v>
+      </c>
+      <c r="G85">
+        <v>0.988473214285714</v>
+      </c>
+      <c r="H85">
+        <v>2.639</v>
+      </c>
+      <c r="I85">
+        <v>2.1064</v>
+      </c>
+      <c r="L85">
+        <v>1.055</v>
+      </c>
+      <c r="M85">
+        <v>1.44458</v>
+      </c>
+      <c r="N85">
+        <v>1.97508</v>
+      </c>
+      <c r="O85">
+        <v>1785330</v>
+      </c>
+      <c r="P85">
+        <v>5495215</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>53</v>
+      </c>
+      <c r="R85" t="s">
+        <v>54</v>
+      </c>
+      <c r="S85" t="s">
+        <v>55</v>
+      </c>
+      <c r="T85" t="s">
+        <v>56</v>
+      </c>
+      <c r="U85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86">
+        <v>1.05</v>
+      </c>
+      <c r="G86">
+        <v>1.17357142857143</v>
+      </c>
+      <c r="H86">
+        <v>2.83</v>
+      </c>
+      <c r="I86">
+        <v>2.32</v>
+      </c>
+      <c r="L86">
+        <v>1.24</v>
+      </c>
+      <c r="M86">
+        <v>1.588</v>
+      </c>
+      <c r="N86">
+        <v>2.0736</v>
+      </c>
+      <c r="O86">
+        <v>1785330</v>
+      </c>
+      <c r="P86">
+        <v>5495215</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>53</v>
+      </c>
+      <c r="R86" t="s">
+        <v>54</v>
+      </c>
+      <c r="S86" t="s">
+        <v>55</v>
+      </c>
+      <c r="T86" t="s">
+        <v>56</v>
+      </c>
+      <c r="U86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
+      </c>
+      <c r="E87" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87">
+        <v>1.05</v>
+      </c>
+      <c r="G87">
+        <v>1.17357142857143</v>
+      </c>
+      <c r="H87">
+        <v>2.83</v>
+      </c>
+      <c r="I87">
+        <v>2.32</v>
+      </c>
+      <c r="L87">
+        <v>1.24</v>
+      </c>
+      <c r="M87">
+        <v>1.588</v>
+      </c>
+      <c r="N87">
+        <v>2.0736</v>
+      </c>
+      <c r="O87">
+        <v>1785330</v>
+      </c>
+      <c r="P87">
+        <v>5495215</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>53</v>
+      </c>
+      <c r="R87" t="s">
+        <v>54</v>
+      </c>
+      <c r="S87" t="s">
+        <v>55</v>
+      </c>
+      <c r="T87" t="s">
+        <v>56</v>
+      </c>
+      <c r="U87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88">
+        <v>0.031</v>
+      </c>
+      <c r="G88">
+        <v>0.0355714285714286</v>
+      </c>
+      <c r="H88">
+        <v>0.104</v>
+      </c>
+      <c r="I88">
+        <v>0.0767</v>
+      </c>
+      <c r="L88">
+        <v>0.0265</v>
+      </c>
+      <c r="M88">
+        <v>0.046</v>
+      </c>
+      <c r="N88">
+        <v>0.05836</v>
+      </c>
+      <c r="O88">
+        <v>1785330</v>
+      </c>
+      <c r="P88">
+        <v>5495215</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>53</v>
+      </c>
+      <c r="R88" t="s">
+        <v>54</v>
+      </c>
+      <c r="S88" t="s">
+        <v>55</v>
+      </c>
+      <c r="T88" t="s">
+        <v>56</v>
+      </c>
+      <c r="U88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89">
+        <v>0.031</v>
+      </c>
+      <c r="G89">
+        <v>0.0355714285714286</v>
+      </c>
+      <c r="H89">
+        <v>0.104</v>
+      </c>
+      <c r="I89">
+        <v>0.0767</v>
+      </c>
+      <c r="L89">
+        <v>0.0265</v>
+      </c>
+      <c r="M89">
+        <v>0.046</v>
+      </c>
+      <c r="N89">
+        <v>0.05836</v>
+      </c>
+      <c r="O89">
+        <v>1785330</v>
+      </c>
+      <c r="P89">
+        <v>5495215</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R89" t="s">
+        <v>54</v>
+      </c>
+      <c r="S89" t="s">
+        <v>55</v>
+      </c>
+      <c r="T89" t="s">
+        <v>56</v>
+      </c>
+      <c r="U89" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
